--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>TITRE DU PROJET</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>3.1.6</t>
   </si>
 </sst>
 </file>
@@ -1746,18 +1755,39 @@
     <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="36" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="16" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="36" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="36" fillId="16" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="36" fillId="16" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="36" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="36" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1769,19 +1799,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="36" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="36" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1799,20 +1826,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="36" fillId="16" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="16" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1823,18 +1844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2322,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:CA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14:X14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V68" sqref="V68:X68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2924,84 +2933,84 @@
       <c r="F8" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="179" t="s">
+      <c r="G8" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="180" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="180"/>
-      <c r="R8" s="180"/>
-      <c r="S8" s="180"/>
-      <c r="T8" s="180"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="180"/>
-      <c r="W8" s="180"/>
-      <c r="X8" s="180"/>
-      <c r="Y8" s="180"/>
-      <c r="Z8" s="180"/>
-      <c r="AA8" s="180"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="180"/>
-      <c r="AD8" s="180"/>
-      <c r="AE8" s="180"/>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="180"/>
-      <c r="AH8" s="180"/>
-      <c r="AI8" s="180"/>
-      <c r="AJ8" s="180"/>
-      <c r="AK8" s="180"/>
-      <c r="AL8" s="180"/>
-      <c r="AM8" s="180"/>
-      <c r="AN8" s="180"/>
-      <c r="AO8" s="180"/>
-      <c r="AP8" s="180"/>
-      <c r="AQ8" s="180"/>
-      <c r="AR8" s="180"/>
-      <c r="AS8" s="180"/>
-      <c r="AT8" s="180"/>
-      <c r="AU8" s="180"/>
-      <c r="AV8" s="180"/>
-      <c r="AW8" s="180"/>
-      <c r="AX8" s="180"/>
-      <c r="AY8" s="180"/>
-      <c r="AZ8" s="180"/>
-      <c r="BA8" s="180"/>
-      <c r="BB8" s="180"/>
-      <c r="BC8" s="180"/>
-      <c r="BD8" s="180"/>
-      <c r="BE8" s="180"/>
-      <c r="BF8" s="180"/>
-      <c r="BG8" s="180"/>
-      <c r="BH8" s="180"/>
-      <c r="BI8" s="180"/>
-      <c r="BJ8" s="180"/>
-      <c r="BK8" s="181"/>
-      <c r="BL8" s="180" t="s">
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="184"/>
+      <c r="AJ8" s="184"/>
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184"/>
+      <c r="AM8" s="184"/>
+      <c r="AN8" s="184"/>
+      <c r="AO8" s="184"/>
+      <c r="AP8" s="184"/>
+      <c r="AQ8" s="184"/>
+      <c r="AR8" s="184"/>
+      <c r="AS8" s="184"/>
+      <c r="AT8" s="184"/>
+      <c r="AU8" s="184"/>
+      <c r="AV8" s="184"/>
+      <c r="AW8" s="184"/>
+      <c r="AX8" s="184"/>
+      <c r="AY8" s="184"/>
+      <c r="AZ8" s="184"/>
+      <c r="BA8" s="184"/>
+      <c r="BB8" s="184"/>
+      <c r="BC8" s="184"/>
+      <c r="BD8" s="184"/>
+      <c r="BE8" s="184"/>
+      <c r="BF8" s="184"/>
+      <c r="BG8" s="184"/>
+      <c r="BH8" s="184"/>
+      <c r="BI8" s="184"/>
+      <c r="BJ8" s="184"/>
+      <c r="BK8" s="185"/>
+      <c r="BL8" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="BM8" s="180"/>
-      <c r="BN8" s="180"/>
-      <c r="BO8" s="180"/>
-      <c r="BP8" s="180"/>
-      <c r="BQ8" s="180"/>
-      <c r="BR8" s="180"/>
-      <c r="BS8" s="180"/>
-      <c r="BT8" s="180"/>
-      <c r="BU8" s="180"/>
-      <c r="BV8" s="180"/>
-      <c r="BW8" s="180"/>
-      <c r="BX8" s="180"/>
-      <c r="BY8" s="180"/>
-      <c r="BZ8" s="182"/>
+      <c r="BM8" s="184"/>
+      <c r="BN8" s="184"/>
+      <c r="BO8" s="184"/>
+      <c r="BP8" s="184"/>
+      <c r="BQ8" s="184"/>
+      <c r="BR8" s="184"/>
+      <c r="BS8" s="184"/>
+      <c r="BT8" s="184"/>
+      <c r="BU8" s="184"/>
+      <c r="BV8" s="184"/>
+      <c r="BW8" s="184"/>
+      <c r="BX8" s="184"/>
+      <c r="BY8" s="184"/>
+      <c r="BZ8" s="186"/>
       <c r="CA8" s="23"/>
     </row>
     <row r="9" spans="1:79" ht="17.25" customHeight="1">
@@ -3120,7 +3129,7 @@
       </c>
       <c r="F10" s="27">
         <f>SUM(F11,F20,F27,F64,F73)</f>
-        <v>0.51041666666666674</v>
+        <v>0.88541666666666674</v>
       </c>
       <c r="G10" s="120">
         <v>45782</v>
@@ -3235,7 +3244,7 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="0"/>
-        <v>5.2083333333333329E-2</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="G11" s="113">
         <f>SUM(G12:L12,G14:L14,G16:L16,G18:L18,G21:L21,G23:L23,G25:L25,G31:L31,G49:L49,G51:L51,G58:L58,G62:L62,G67:L67,G69:L69,G74:L74,G76:L76,G80:L80,G82:L82, G29:L29,G53:L53,G55:L55,G60:L60,G78:L78,G65:L65,G33:L33,G35:L35,G37:L37,G39:L39,G42:L42,G44:L44,G46:L46,G71:L71)</f>
@@ -3714,7 +3723,7 @@
       </c>
       <c r="F16" s="97">
         <f t="shared" ref="F16" si="15">SUM(G17:BZ17)</f>
-        <v>0</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="G16" s="87"/>
       <c r="H16" s="88"/>
@@ -3808,10 +3817,14 @@
       <c r="M17" s="81"/>
       <c r="N17" s="79"/>
       <c r="O17" s="80"/>
-      <c r="P17" s="123"/>
+      <c r="P17" s="123">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="Q17" s="124"/>
       <c r="R17" s="125"/>
-      <c r="S17" s="90"/>
+      <c r="S17" s="90">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="T17" s="88"/>
       <c r="U17" s="89"/>
       <c r="V17" s="90"/>
@@ -3888,7 +3901,7 @@
       </c>
       <c r="F18" s="97">
         <f t="shared" ref="F18" si="16">SUM(G19:BZ19)</f>
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G18" s="87"/>
       <c r="H18" s="88"/>
@@ -3983,7 +3996,7 @@
       <c r="N19" s="79"/>
       <c r="O19" s="80"/>
       <c r="P19" s="139">
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q19" s="140"/>
       <c r="R19" s="141"/>
@@ -4064,7 +4077,7 @@
       </c>
       <c r="F20" s="42">
         <f>SUM(F21:F26)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="40"/>
@@ -4331,7 +4344,7 @@
       </c>
       <c r="F23" s="97">
         <f t="shared" ref="F23" si="18">SUM(G24:BZ24)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="88"/>
@@ -4425,7 +4438,9 @@
       <c r="M24" s="81"/>
       <c r="N24" s="79"/>
       <c r="O24" s="80"/>
-      <c r="P24" s="81"/>
+      <c r="P24" s="81">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="Q24" s="79"/>
       <c r="R24" s="80"/>
       <c r="S24" s="90"/>
@@ -4505,7 +4520,7 @@
       </c>
       <c r="F25" s="97">
         <f t="shared" ref="F25" si="20">SUM(G26:BZ26)</f>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="88"/>
@@ -4602,7 +4617,9 @@
       <c r="P26" s="81"/>
       <c r="Q26" s="79"/>
       <c r="R26" s="80"/>
-      <c r="S26" s="90"/>
+      <c r="S26" s="90">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="T26" s="88"/>
       <c r="U26" s="89"/>
       <c r="V26" s="90"/>
@@ -4679,7 +4696,7 @@
       </c>
       <c r="F27" s="48">
         <f>SUM(F49:F56,F58:F63,F29:F40,F42:F47,)</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="47"/>
@@ -4855,7 +4872,7 @@
       </c>
       <c r="F29" s="97">
         <f>SUM(G30:BZ30,)</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="88"/>
@@ -4952,10 +4969,14 @@
       <c r="P30" s="81"/>
       <c r="Q30" s="79"/>
       <c r="R30" s="80"/>
-      <c r="S30" s="90"/>
+      <c r="S30" s="90">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="T30" s="88"/>
       <c r="U30" s="89"/>
-      <c r="V30" s="90"/>
+      <c r="V30" s="90">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="W30" s="88"/>
       <c r="X30" s="89"/>
       <c r="Y30" s="81"/>
@@ -5365,7 +5386,7 @@
     <row r="35" spans="1:79" s="72" customFormat="1" ht="21" customHeight="1" outlineLevel="1">
       <c r="A35" s="73"/>
       <c r="B35" s="91" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C35" s="93"/>
       <c r="D35" s="95" t="s">
@@ -5539,7 +5560,7 @@
     <row r="37" spans="1:79" s="72" customFormat="1" ht="21" customHeight="1" outlineLevel="1">
       <c r="A37" s="73"/>
       <c r="B37" s="91" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C37" s="93"/>
       <c r="D37" s="95" t="s">
@@ -5715,7 +5736,7 @@
     <row r="39" spans="1:79" s="72" customFormat="1" ht="21" customHeight="1" outlineLevel="1">
       <c r="A39" s="73"/>
       <c r="B39" s="91" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C39" s="93"/>
       <c r="D39" s="95" t="s">
@@ -6148,7 +6169,7 @@
     <row r="44" spans="1:79" s="72" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A44" s="35"/>
       <c r="B44" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="93"/>
       <c r="D44" s="95" t="s">
@@ -6322,7 +6343,7 @@
     <row r="46" spans="1:79" s="72" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A46" s="35"/>
       <c r="B46" s="91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C46" s="93"/>
       <c r="D46" s="95" t="s">
@@ -7336,27 +7357,27 @@
       <c r="BC57" s="58"/>
       <c r="BD57" s="57"/>
       <c r="BE57" s="57"/>
-      <c r="BF57" s="166"/>
-      <c r="BG57" s="167"/>
-      <c r="BH57" s="168"/>
-      <c r="BI57" s="166"/>
-      <c r="BJ57" s="167"/>
-      <c r="BK57" s="168"/>
-      <c r="BL57" s="166"/>
-      <c r="BM57" s="167"/>
-      <c r="BN57" s="168"/>
-      <c r="BO57" s="166"/>
-      <c r="BP57" s="167"/>
-      <c r="BQ57" s="168"/>
-      <c r="BR57" s="166"/>
-      <c r="BS57" s="167"/>
-      <c r="BT57" s="168"/>
-      <c r="BU57" s="166"/>
-      <c r="BV57" s="167"/>
-      <c r="BW57" s="168"/>
-      <c r="BX57" s="166"/>
-      <c r="BY57" s="167"/>
-      <c r="BZ57" s="169"/>
+      <c r="BF57" s="172"/>
+      <c r="BG57" s="173"/>
+      <c r="BH57" s="174"/>
+      <c r="BI57" s="172"/>
+      <c r="BJ57" s="173"/>
+      <c r="BK57" s="174"/>
+      <c r="BL57" s="172"/>
+      <c r="BM57" s="173"/>
+      <c r="BN57" s="174"/>
+      <c r="BO57" s="172"/>
+      <c r="BP57" s="173"/>
+      <c r="BQ57" s="174"/>
+      <c r="BR57" s="172"/>
+      <c r="BS57" s="173"/>
+      <c r="BT57" s="174"/>
+      <c r="BU57" s="172"/>
+      <c r="BV57" s="173"/>
+      <c r="BW57" s="174"/>
+      <c r="BX57" s="172"/>
+      <c r="BY57" s="173"/>
+      <c r="BZ57" s="175"/>
       <c r="CA57" s="34"/>
     </row>
     <row r="58" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
@@ -7896,7 +7917,7 @@
       </c>
       <c r="F64" s="32">
         <f>SUM(F65:F72)</f>
-        <v>0.25694444444444448</v>
+        <v>0.30902777777777785</v>
       </c>
       <c r="G64" s="63"/>
       <c r="H64" s="64"/>
@@ -7949,27 +7970,27 @@
       <c r="BC64" s="65"/>
       <c r="BD64" s="31"/>
       <c r="BE64" s="31"/>
-      <c r="BF64" s="160"/>
+      <c r="BF64" s="164"/>
       <c r="BG64" s="106"/>
       <c r="BH64" s="106"/>
-      <c r="BI64" s="160"/>
+      <c r="BI64" s="164"/>
       <c r="BJ64" s="106"/>
       <c r="BK64" s="106"/>
-      <c r="BL64" s="160"/>
+      <c r="BL64" s="164"/>
       <c r="BM64" s="106"/>
       <c r="BN64" s="106"/>
-      <c r="BO64" s="160"/>
+      <c r="BO64" s="164"/>
       <c r="BP64" s="106"/>
       <c r="BQ64" s="106"/>
-      <c r="BR64" s="160"/>
+      <c r="BR64" s="164"/>
       <c r="BS64" s="106"/>
       <c r="BT64" s="106"/>
-      <c r="BU64" s="160"/>
+      <c r="BU64" s="164"/>
       <c r="BV64" s="106"/>
       <c r="BW64" s="106"/>
-      <c r="BX64" s="160"/>
+      <c r="BX64" s="164"/>
       <c r="BY64" s="106"/>
-      <c r="BZ64" s="161"/>
+      <c r="BZ64" s="165"/>
       <c r="CA64" s="34"/>
     </row>
     <row r="65" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
@@ -8130,24 +8151,24 @@
       <c r="BF66" s="126"/>
       <c r="BG66" s="79"/>
       <c r="BH66" s="80"/>
-      <c r="BI66" s="157"/>
-      <c r="BJ66" s="158"/>
-      <c r="BK66" s="159"/>
-      <c r="BL66" s="157"/>
-      <c r="BM66" s="158"/>
-      <c r="BN66" s="159"/>
-      <c r="BO66" s="162"/>
-      <c r="BP66" s="158"/>
-      <c r="BQ66" s="159"/>
-      <c r="BR66" s="162"/>
-      <c r="BS66" s="158"/>
-      <c r="BT66" s="159"/>
-      <c r="BU66" s="157"/>
-      <c r="BV66" s="158"/>
-      <c r="BW66" s="159"/>
-      <c r="BX66" s="157"/>
-      <c r="BY66" s="158"/>
-      <c r="BZ66" s="164"/>
+      <c r="BI66" s="166"/>
+      <c r="BJ66" s="167"/>
+      <c r="BK66" s="168"/>
+      <c r="BL66" s="166"/>
+      <c r="BM66" s="167"/>
+      <c r="BN66" s="168"/>
+      <c r="BO66" s="169"/>
+      <c r="BP66" s="167"/>
+      <c r="BQ66" s="168"/>
+      <c r="BR66" s="169"/>
+      <c r="BS66" s="167"/>
+      <c r="BT66" s="168"/>
+      <c r="BU66" s="166"/>
+      <c r="BV66" s="167"/>
+      <c r="BW66" s="168"/>
+      <c r="BX66" s="166"/>
+      <c r="BY66" s="167"/>
+      <c r="BZ66" s="170"/>
       <c r="CA66" s="34"/>
     </row>
     <row r="67" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
@@ -8165,7 +8186,7 @@
       </c>
       <c r="F67" s="97">
         <f t="shared" ref="F67" si="40">SUM(G68:BZ68,)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="88"/>
@@ -8246,7 +8267,7 @@
       </c>
       <c r="BD67" s="108"/>
       <c r="BE67" s="109"/>
-      <c r="BF67" s="163">
+      <c r="BF67" s="158">
         <v>9.375E-2</v>
       </c>
       <c r="BG67" s="103"/>
@@ -8293,7 +8314,9 @@
       <c r="S68" s="90"/>
       <c r="T68" s="88"/>
       <c r="U68" s="89"/>
-      <c r="V68" s="90"/>
+      <c r="V68" s="90">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="W68" s="88"/>
       <c r="X68" s="89"/>
       <c r="Y68" s="81"/>
@@ -8458,12 +8481,12 @@
       <c r="J70" s="86"/>
       <c r="K70" s="84"/>
       <c r="L70" s="85"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="158"/>
-      <c r="O70" s="159"/>
-      <c r="P70" s="157"/>
-      <c r="Q70" s="158"/>
-      <c r="R70" s="159"/>
+      <c r="M70" s="166"/>
+      <c r="N70" s="167"/>
+      <c r="O70" s="168"/>
+      <c r="P70" s="166"/>
+      <c r="Q70" s="167"/>
+      <c r="R70" s="168"/>
       <c r="S70" s="86"/>
       <c r="T70" s="84"/>
       <c r="U70" s="85"/>
@@ -8482,12 +8505,12 @@
       <c r="AH70" s="86"/>
       <c r="AI70" s="84"/>
       <c r="AJ70" s="85"/>
-      <c r="AK70" s="157"/>
-      <c r="AL70" s="158"/>
-      <c r="AM70" s="159"/>
-      <c r="AN70" s="157"/>
-      <c r="AO70" s="158"/>
-      <c r="AP70" s="159"/>
+      <c r="AK70" s="166"/>
+      <c r="AL70" s="167"/>
+      <c r="AM70" s="168"/>
+      <c r="AN70" s="166"/>
+      <c r="AO70" s="167"/>
+      <c r="AP70" s="168"/>
       <c r="AQ70" s="86"/>
       <c r="AR70" s="84"/>
       <c r="AS70" s="85"/>
@@ -8503,12 +8526,12 @@
       <c r="BC70" s="87"/>
       <c r="BD70" s="88"/>
       <c r="BE70" s="89"/>
-      <c r="BF70" s="162"/>
-      <c r="BG70" s="158"/>
-      <c r="BH70" s="159"/>
-      <c r="BI70" s="157"/>
-      <c r="BJ70" s="158"/>
-      <c r="BK70" s="159"/>
+      <c r="BF70" s="169"/>
+      <c r="BG70" s="167"/>
+      <c r="BH70" s="168"/>
+      <c r="BI70" s="166"/>
+      <c r="BJ70" s="167"/>
+      <c r="BK70" s="168"/>
       <c r="BL70" s="75"/>
       <c r="BM70" s="76"/>
       <c r="BN70" s="77"/>
@@ -8541,7 +8564,7 @@
       </c>
       <c r="F71" s="97">
         <f t="shared" ref="F71" si="44">SUM(G72:BZ72,)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G71" s="87"/>
       <c r="H71" s="88"/>
@@ -8639,7 +8662,9 @@
       <c r="S72" s="86"/>
       <c r="T72" s="84"/>
       <c r="U72" s="85"/>
-      <c r="V72" s="86"/>
+      <c r="V72" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="W72" s="84"/>
       <c r="X72" s="85"/>
       <c r="Y72" s="75"/>
@@ -8675,7 +8700,7 @@
       <c r="BC72" s="87"/>
       <c r="BD72" s="88"/>
       <c r="BE72" s="89"/>
-      <c r="BF72" s="165"/>
+      <c r="BF72" s="171"/>
       <c r="BG72" s="76"/>
       <c r="BH72" s="77"/>
       <c r="BI72" s="75"/>
@@ -8713,7 +8738,7 @@
       </c>
       <c r="F73" s="42">
         <f t="shared" si="45"/>
-        <v>0.15972222222222221</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="G73" s="68"/>
       <c r="H73" s="69"/>
@@ -8804,18 +8829,18 @@
       </c>
       <c r="F74" s="97">
         <f>SUM(G75:BZ75)</f>
-        <v>3.125E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="G74" s="110">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="H74" s="108"/>
       <c r="I74" s="109"/>
-      <c r="J74" s="146">
+      <c r="J74" s="155">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K74" s="147"/>
-      <c r="L74" s="148"/>
+      <c r="K74" s="153"/>
+      <c r="L74" s="156"/>
       <c r="M74" s="107">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -8826,16 +8851,16 @@
       </c>
       <c r="Q74" s="108"/>
       <c r="R74" s="108"/>
-      <c r="S74" s="149">
+      <c r="S74" s="152">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="T74" s="147"/>
-      <c r="U74" s="150"/>
-      <c r="V74" s="146">
+      <c r="T74" s="153"/>
+      <c r="U74" s="154"/>
+      <c r="V74" s="155">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="W74" s="147"/>
-      <c r="X74" s="148"/>
+      <c r="W74" s="153"/>
+      <c r="X74" s="156"/>
       <c r="Y74" s="107">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -8856,17 +8881,17 @@
       </c>
       <c r="AI74" s="108"/>
       <c r="AJ74" s="108"/>
-      <c r="AK74" s="149">
+      <c r="AK74" s="152">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="AL74" s="147"/>
-      <c r="AM74" s="150"/>
+      <c r="AL74" s="153"/>
+      <c r="AM74" s="154"/>
       <c r="AN74" s="107">
         <v>1.0416666666666701E-2</v>
       </c>
       <c r="AO74" s="108"/>
       <c r="AP74" s="108"/>
-      <c r="AQ74" s="151">
+      <c r="AQ74" s="157">
         <v>1.0416666666666701E-2</v>
       </c>
       <c r="AR74" s="108"/>
@@ -8876,11 +8901,11 @@
       </c>
       <c r="AU74" s="108"/>
       <c r="AV74" s="108"/>
-      <c r="AW74" s="149">
+      <c r="AW74" s="152">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="AX74" s="147"/>
-      <c r="AY74" s="150"/>
+      <c r="AX74" s="153"/>
+      <c r="AY74" s="154"/>
       <c r="AZ74" s="107">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -8896,26 +8921,26 @@
       </c>
       <c r="BG74" s="108"/>
       <c r="BH74" s="108"/>
-      <c r="BI74" s="149">
+      <c r="BI74" s="152">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="BJ74" s="147"/>
-      <c r="BK74" s="150"/>
+      <c r="BJ74" s="153"/>
+      <c r="BK74" s="154"/>
       <c r="BL74" s="107">
         <v>1.0416666666666701E-2</v>
       </c>
       <c r="BM74" s="108"/>
       <c r="BN74" s="108"/>
-      <c r="BO74" s="149">
+      <c r="BO74" s="152">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="BP74" s="147"/>
-      <c r="BQ74" s="150"/>
-      <c r="BR74" s="146">
+      <c r="BP74" s="153"/>
+      <c r="BQ74" s="154"/>
+      <c r="BR74" s="155">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="BS74" s="147"/>
-      <c r="BT74" s="148"/>
+      <c r="BS74" s="153"/>
+      <c r="BT74" s="156"/>
       <c r="BU74" s="107">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -8955,66 +8980,70 @@
       </c>
       <c r="Q75" s="79"/>
       <c r="R75" s="80"/>
-      <c r="S75" s="173"/>
+      <c r="S75" s="150">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="T75" s="90"/>
-      <c r="U75" s="174"/>
-      <c r="V75" s="173"/>
+      <c r="U75" s="149"/>
+      <c r="V75" s="150">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="W75" s="90"/>
-      <c r="X75" s="174"/>
-      <c r="Y75" s="183"/>
-      <c r="Z75" s="184"/>
-      <c r="AA75" s="185"/>
-      <c r="AB75" s="183"/>
-      <c r="AC75" s="184"/>
-      <c r="AD75" s="186"/>
+      <c r="X75" s="149"/>
+      <c r="Y75" s="146"/>
+      <c r="Z75" s="147"/>
+      <c r="AA75" s="151"/>
+      <c r="AB75" s="146"/>
+      <c r="AC75" s="147"/>
+      <c r="AD75" s="148"/>
       <c r="AE75" s="87"/>
       <c r="AF75" s="90"/>
-      <c r="AG75" s="174"/>
-      <c r="AH75" s="173"/>
+      <c r="AG75" s="149"/>
+      <c r="AH75" s="150"/>
       <c r="AI75" s="90"/>
-      <c r="AJ75" s="174"/>
-      <c r="AK75" s="183"/>
-      <c r="AL75" s="184"/>
-      <c r="AM75" s="185"/>
-      <c r="AN75" s="183"/>
-      <c r="AO75" s="184"/>
-      <c r="AP75" s="185"/>
-      <c r="AQ75" s="173"/>
+      <c r="AJ75" s="149"/>
+      <c r="AK75" s="146"/>
+      <c r="AL75" s="147"/>
+      <c r="AM75" s="151"/>
+      <c r="AN75" s="146"/>
+      <c r="AO75" s="147"/>
+      <c r="AP75" s="151"/>
+      <c r="AQ75" s="150"/>
       <c r="AR75" s="90"/>
-      <c r="AS75" s="174"/>
-      <c r="AT75" s="173"/>
+      <c r="AS75" s="149"/>
+      <c r="AT75" s="150"/>
       <c r="AU75" s="90"/>
-      <c r="AV75" s="174"/>
-      <c r="AW75" s="183"/>
-      <c r="AX75" s="184"/>
-      <c r="AY75" s="185"/>
-      <c r="AZ75" s="183"/>
-      <c r="BA75" s="184"/>
-      <c r="BB75" s="186"/>
+      <c r="AV75" s="149"/>
+      <c r="AW75" s="146"/>
+      <c r="AX75" s="147"/>
+      <c r="AY75" s="151"/>
+      <c r="AZ75" s="146"/>
+      <c r="BA75" s="147"/>
+      <c r="BB75" s="148"/>
       <c r="BC75" s="87"/>
       <c r="BD75" s="90"/>
-      <c r="BE75" s="174"/>
-      <c r="BF75" s="173"/>
+      <c r="BE75" s="149"/>
+      <c r="BF75" s="150"/>
       <c r="BG75" s="90"/>
-      <c r="BH75" s="174"/>
-      <c r="BI75" s="183"/>
-      <c r="BJ75" s="184"/>
-      <c r="BK75" s="185"/>
-      <c r="BL75" s="183"/>
-      <c r="BM75" s="184"/>
-      <c r="BN75" s="185"/>
-      <c r="BO75" s="173"/>
+      <c r="BH75" s="149"/>
+      <c r="BI75" s="146"/>
+      <c r="BJ75" s="147"/>
+      <c r="BK75" s="151"/>
+      <c r="BL75" s="146"/>
+      <c r="BM75" s="147"/>
+      <c r="BN75" s="151"/>
+      <c r="BO75" s="150"/>
       <c r="BP75" s="90"/>
-      <c r="BQ75" s="174"/>
-      <c r="BR75" s="173"/>
+      <c r="BQ75" s="149"/>
+      <c r="BR75" s="150"/>
       <c r="BS75" s="90"/>
-      <c r="BT75" s="174"/>
-      <c r="BU75" s="183"/>
-      <c r="BV75" s="184"/>
-      <c r="BW75" s="185"/>
-      <c r="BX75" s="183"/>
-      <c r="BY75" s="184"/>
-      <c r="BZ75" s="186"/>
+      <c r="BT75" s="149"/>
+      <c r="BU75" s="146"/>
+      <c r="BV75" s="147"/>
+      <c r="BW75" s="151"/>
+      <c r="BX75" s="146"/>
+      <c r="BY75" s="147"/>
+      <c r="BZ75" s="148"/>
       <c r="CA75" s="34"/>
     </row>
     <row r="76" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
@@ -9114,7 +9143,7 @@
       </c>
       <c r="BM76" s="103"/>
       <c r="BN76" s="104"/>
-      <c r="BO76" s="163">
+      <c r="BO76" s="158">
         <v>0.1388888888888889</v>
       </c>
       <c r="BP76" s="103"/>
@@ -9142,7 +9171,7 @@
       </c>
       <c r="H77" s="88"/>
       <c r="I77" s="89"/>
-      <c r="J77" s="153"/>
+      <c r="J77" s="160"/>
       <c r="K77" s="88"/>
       <c r="L77" s="89"/>
       <c r="M77" s="81">
@@ -9150,11 +9179,11 @@
       </c>
       <c r="N77" s="79"/>
       <c r="O77" s="80"/>
-      <c r="P77" s="154">
+      <c r="P77" s="161">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="Q77" s="155"/>
-      <c r="R77" s="156"/>
+      <c r="Q77" s="162"/>
+      <c r="R77" s="163"/>
       <c r="S77" s="90"/>
       <c r="T77" s="88"/>
       <c r="U77" s="89"/>
@@ -9164,7 +9193,7 @@
       <c r="Y77" s="81"/>
       <c r="Z77" s="79"/>
       <c r="AA77" s="80"/>
-      <c r="AB77" s="152"/>
+      <c r="AB77" s="159"/>
       <c r="AC77" s="79"/>
       <c r="AD77" s="80"/>
       <c r="AE77" s="87"/>
@@ -9237,9 +9266,9 @@
       <c r="G78" s="87"/>
       <c r="H78" s="88"/>
       <c r="I78" s="89"/>
-      <c r="J78" s="173"/>
+      <c r="J78" s="150"/>
       <c r="K78" s="90"/>
-      <c r="L78" s="174"/>
+      <c r="L78" s="149"/>
       <c r="M78" s="81"/>
       <c r="N78" s="79"/>
       <c r="O78" s="80"/>
@@ -9297,7 +9326,7 @@
       <c r="BO78" s="78"/>
       <c r="BP78" s="79"/>
       <c r="BQ78" s="80"/>
-      <c r="BR78" s="163">
+      <c r="BR78" s="158">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="BS78" s="103"/>
@@ -9382,7 +9411,7 @@
       <c r="BO79" s="78"/>
       <c r="BP79" s="79"/>
       <c r="BQ79" s="80"/>
-      <c r="BR79" s="175"/>
+      <c r="BR79" s="182"/>
       <c r="BS79" s="76"/>
       <c r="BT79" s="76"/>
       <c r="BU79" s="81"/>
@@ -9475,11 +9504,11 @@
       <c r="BO80" s="78"/>
       <c r="BP80" s="79"/>
       <c r="BQ80" s="80"/>
-      <c r="BR80" s="176">
+      <c r="BR80" s="179">
         <v>6.25E-2</v>
       </c>
-      <c r="BS80" s="177"/>
-      <c r="BT80" s="178"/>
+      <c r="BS80" s="180"/>
+      <c r="BT80" s="181"/>
       <c r="BU80" s="81"/>
       <c r="BV80" s="79"/>
       <c r="BW80" s="80"/>
@@ -9720,7 +9749,7 @@
       <c r="BC83" s="87"/>
       <c r="BD83" s="88"/>
       <c r="BE83" s="89"/>
-      <c r="BF83" s="165"/>
+      <c r="BF83" s="171"/>
       <c r="BG83" s="76"/>
       <c r="BH83" s="77"/>
       <c r="BI83" s="75"/>
@@ -9729,10 +9758,10 @@
       <c r="BL83" s="75"/>
       <c r="BM83" s="76"/>
       <c r="BN83" s="77"/>
-      <c r="BO83" s="165"/>
+      <c r="BO83" s="171"/>
       <c r="BP83" s="76"/>
       <c r="BQ83" s="77"/>
-      <c r="BR83" s="165"/>
+      <c r="BR83" s="171"/>
       <c r="BS83" s="76"/>
       <c r="BT83" s="77"/>
       <c r="BU83" s="75"/>
@@ -9750,114 +9779,114 @@
       <c r="D84" s="37"/>
       <c r="E84" s="70"/>
       <c r="F84" s="70"/>
-      <c r="G84" s="170">
+      <c r="G84" s="176">
         <f>SUM(G83:L83,G81:L81,G79:L79,G77:L77,G75:L75,G70:L70,G68:L68,G66:L66,G63:L63,G61:L61,G59:L59,G56:L56,G54:L54,G52:L52,G50:L50,G32:L32,G30:L30,G26:L26,G24:L24,G22:L22,G19:L19,G17:L17,G15:L15,G13:L13,G72:L72,G34:L34,G36:L36,G38:L38,G40:L40,G43:L43,G45:L45,G47:L47,)</f>
         <v>0.2951388888888889</v>
       </c>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="171"/>
-      <c r="K84" s="171"/>
-      <c r="L84" s="172"/>
-      <c r="M84" s="170">
+      <c r="H84" s="177"/>
+      <c r="I84" s="177"/>
+      <c r="J84" s="177"/>
+      <c r="K84" s="177"/>
+      <c r="L84" s="178"/>
+      <c r="M84" s="176">
         <f t="shared" ref="M84" si="54">SUM(M83:R83,M81:R81,M79:R79,M77:R77,M75:R75,M70:R70,M68:R68,M66:R66,M63:R63,M61:R61,M59:R59,M56:R56,M54:R54,M52:R52,M50:R50,M32:R32,M30:R30,M26:R26,M24:R24,M22:R22,M19:R19,M17:R17,M15:R15,M13:R13,M72:R72,M34:R34,M36:R36,M38:R38,M40:R40,M43:R43,M45:R45,M47:R47,)</f>
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="N84" s="171"/>
-      <c r="O84" s="171"/>
-      <c r="P84" s="171"/>
-      <c r="Q84" s="171"/>
-      <c r="R84" s="172"/>
-      <c r="S84" s="170">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="N84" s="177"/>
+      <c r="O84" s="177"/>
+      <c r="P84" s="177"/>
+      <c r="Q84" s="177"/>
+      <c r="R84" s="178"/>
+      <c r="S84" s="176">
         <f t="shared" ref="S84" si="55">SUM(S83:X83,S81:X81,S79:X79,S77:X77,S75:X75,S70:X70,S68:X68,S66:X66,S63:X63,S61:X61,S59:X59,S56:X56,S54:X54,S52:X52,S50:X50,S32:X32,S30:X30,S26:X26,S24:X24,S22:X22,S19:X19,S17:X17,S15:X15,S13:X13,S72:X72,S34:X34,S36:X36,S38:X38,S40:X40,S43:X43,S45:X45,S47:X47,)</f>
-        <v>0</v>
-      </c>
-      <c r="T84" s="171"/>
-      <c r="U84" s="171"/>
-      <c r="V84" s="171"/>
-      <c r="W84" s="171"/>
-      <c r="X84" s="172"/>
-      <c r="Y84" s="170">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="T84" s="177"/>
+      <c r="U84" s="177"/>
+      <c r="V84" s="177"/>
+      <c r="W84" s="177"/>
+      <c r="X84" s="178"/>
+      <c r="Y84" s="176">
         <f t="shared" ref="Y84" si="56">SUM(Y83:AD83,Y81:AD81,Y79:AD79,Y77:AD77,Y75:AD75,Y70:AD70,Y68:AD68,Y66:AD66,Y63:AD63,Y61:AD61,Y59:AD59,Y56:AD56,Y54:AD54,Y52:AD52,Y50:AD50,Y32:AD32,Y30:AD30,Y26:AD26,Y24:AD24,Y22:AD22,Y19:AD19,Y17:AD17,Y15:AD15,Y13:AD13,Y72:AD72,Y34:AD34,Y36:AD36,Y38:AD38,Y40:AD40,Y43:AD43,Y45:AD45,Y47:AD47,)</f>
         <v>0</v>
       </c>
-      <c r="Z84" s="171"/>
-      <c r="AA84" s="171"/>
-      <c r="AB84" s="171"/>
-      <c r="AC84" s="171"/>
-      <c r="AD84" s="172"/>
-      <c r="AE84" s="170">
+      <c r="Z84" s="177"/>
+      <c r="AA84" s="177"/>
+      <c r="AB84" s="177"/>
+      <c r="AC84" s="177"/>
+      <c r="AD84" s="178"/>
+      <c r="AE84" s="176">
         <f t="shared" ref="AE84" si="57">SUM(AE83:AJ83,AE81:AJ81,AE79:AJ79,AE77:AJ77,AE75:AJ75,AE70:AJ70,AE68:AJ68,AE66:AJ66,AE63:AJ63,AE61:AJ61,AE59:AJ59,AE56:AJ56,AE54:AJ54,AE52:AJ52,AE50:AJ50,AE32:AJ32,AE30:AJ30,AE26:AJ26,AE24:AJ24,AE22:AJ22,AE19:AJ19,AE17:AJ17,AE15:AJ15,AE13:AJ13,AE72:AJ72,AE34:AJ34,AE36:AJ36,AE38:AJ38,AE40:AJ40,AE43:AJ43,AE45:AJ45,AE47:AJ47,)</f>
         <v>0</v>
       </c>
-      <c r="AF84" s="171"/>
-      <c r="AG84" s="171"/>
-      <c r="AH84" s="171"/>
-      <c r="AI84" s="171"/>
-      <c r="AJ84" s="172"/>
-      <c r="AK84" s="170">
+      <c r="AF84" s="177"/>
+      <c r="AG84" s="177"/>
+      <c r="AH84" s="177"/>
+      <c r="AI84" s="177"/>
+      <c r="AJ84" s="178"/>
+      <c r="AK84" s="176">
         <f t="shared" ref="AK84" si="58">SUM(AK83:AP83,AK81:AP81,AK79:AP79,AK77:AP77,AK75:AP75,AK70:AP70,AK68:AP68,AK66:AP66,AK63:AP63,AK61:AP61,AK59:AP59,AK56:AP56,AK54:AP54,AK52:AP52,AK50:AP50,AK32:AP32,AK30:AP30,AK26:AP26,AK24:AP24,AK22:AP22,AK19:AP19,AK17:AP17,AK15:AP15,AK13:AP13,AK72:AP72,AK34:AP34,AK36:AP36,AK38:AP38,AK40:AP40,AK43:AP43,AK45:AP45,AK47:AP47,)</f>
         <v>0</v>
       </c>
-      <c r="AL84" s="171"/>
-      <c r="AM84" s="171"/>
-      <c r="AN84" s="171"/>
-      <c r="AO84" s="171"/>
-      <c r="AP84" s="172"/>
-      <c r="AQ84" s="170">
+      <c r="AL84" s="177"/>
+      <c r="AM84" s="177"/>
+      <c r="AN84" s="177"/>
+      <c r="AO84" s="177"/>
+      <c r="AP84" s="178"/>
+      <c r="AQ84" s="176">
         <f t="shared" ref="AQ84" si="59">SUM(AQ83:AV83,AQ81:AV81,AQ79:AV79,AQ77:AV77,AQ75:AV75,AQ70:AV70,AQ68:AV68,AQ66:AV66,AQ63:AV63,AQ61:AV61,AQ59:AV59,AQ56:AV56,AQ54:AV54,AQ52:AV52,AQ50:AV50,AQ32:AV32,AQ30:AV30,AQ26:AV26,AQ24:AV24,AQ22:AV22,AQ19:AV19,AQ17:AV17,AQ15:AV15,AQ13:AV13,AQ72:AV72,AQ34:AV34,AQ36:AV36,AQ38:AV38,AQ40:AV40,AQ43:AV43,AQ45:AV45,AQ47:AV47,)</f>
         <v>0</v>
       </c>
-      <c r="AR84" s="171"/>
-      <c r="AS84" s="171"/>
-      <c r="AT84" s="171"/>
-      <c r="AU84" s="171"/>
-      <c r="AV84" s="172"/>
-      <c r="AW84" s="170">
+      <c r="AR84" s="177"/>
+      <c r="AS84" s="177"/>
+      <c r="AT84" s="177"/>
+      <c r="AU84" s="177"/>
+      <c r="AV84" s="178"/>
+      <c r="AW84" s="176">
         <f t="shared" ref="AW84" si="60">SUM(AW83:BB83,AW81:BB81,AW79:BB79,AW77:BB77,AW75:BB75,AW70:BB70,AW68:BB68,AW66:BB66,AW63:BB63,AW61:BB61,AW59:BB59,AW56:BB56,AW54:BB54,AW52:BB52,AW50:BB50,AW32:BB32,AW30:BB30,AW26:BB26,AW24:BB24,AW22:BB22,AW19:BB19,AW17:BB17,AW15:BB15,AW13:BB13,AW72:BB72,AW34:BB34,AW36:BB36,AW38:BB38,AW40:BB40,AW43:BB43,AW45:BB45,AW47:BB47,)</f>
         <v>0</v>
       </c>
-      <c r="AX84" s="171"/>
-      <c r="AY84" s="171"/>
-      <c r="AZ84" s="171"/>
-      <c r="BA84" s="171"/>
-      <c r="BB84" s="172"/>
-      <c r="BC84" s="170">
+      <c r="AX84" s="177"/>
+      <c r="AY84" s="177"/>
+      <c r="AZ84" s="177"/>
+      <c r="BA84" s="177"/>
+      <c r="BB84" s="178"/>
+      <c r="BC84" s="176">
         <f t="shared" ref="BC84" si="61">SUM(BC83:BH83,BC81:BH81,BC79:BH79,BC77:BH77,BC75:BH75,BC70:BH70,BC68:BH68,BC66:BH66,BC63:BH63,BC61:BH61,BC59:BH59,BC56:BH56,BC54:BH54,BC52:BH52,BC50:BH50,BC32:BH32,BC30:BH30,BC26:BH26,BC24:BH24,BC22:BH22,BC19:BH19,BC17:BH17,BC15:BH15,BC13:BH13,BC72:BH72,BC34:BH34,BC36:BH36,BC38:BH38,BC40:BH40,BC43:BH43,BC45:BH45,BC47:BH47,)</f>
         <v>0</v>
       </c>
-      <c r="BD84" s="171"/>
-      <c r="BE84" s="171"/>
-      <c r="BF84" s="171"/>
-      <c r="BG84" s="171"/>
-      <c r="BH84" s="172"/>
-      <c r="BI84" s="170">
+      <c r="BD84" s="177"/>
+      <c r="BE84" s="177"/>
+      <c r="BF84" s="177"/>
+      <c r="BG84" s="177"/>
+      <c r="BH84" s="178"/>
+      <c r="BI84" s="176">
         <f t="shared" ref="BI84" si="62">SUM(BI83:BN83,BI81:BN81,BI79:BN79,BI77:BN77,BI75:BN75,BI70:BN70,BI68:BN68,BI66:BN66,BI63:BN63,BI61:BN61,BI59:BN59,BI56:BN56,BI54:BN54,BI52:BN52,BI50:BN50,BI32:BN32,BI30:BN30,BI26:BN26,BI24:BN24,BI22:BN22,BI19:BN19,BI17:BN17,BI15:BN15,BI13:BN13,BI72:BN72,BI34:BN34,BI36:BN36,BI38:BN38,BI40:BN40,BI43:BN43,BI45:BN45,BI47:BN47,)</f>
         <v>0</v>
       </c>
-      <c r="BJ84" s="171"/>
-      <c r="BK84" s="171"/>
-      <c r="BL84" s="171"/>
-      <c r="BM84" s="171"/>
-      <c r="BN84" s="172"/>
-      <c r="BO84" s="170">
+      <c r="BJ84" s="177"/>
+      <c r="BK84" s="177"/>
+      <c r="BL84" s="177"/>
+      <c r="BM84" s="177"/>
+      <c r="BN84" s="178"/>
+      <c r="BO84" s="176">
         <f t="shared" ref="BO84" si="63">SUM(BO83:BT83,BO81:BT81,BO79:BT79,BO77:BT77,BO75:BT75,BO70:BT70,BO68:BT68,BO66:BT66,BO63:BT63,BO61:BT61,BO59:BT59,BO56:BT56,BO54:BT54,BO52:BT52,BO50:BT50,BO32:BT32,BO30:BT30,BO26:BT26,BO24:BT24,BO22:BT22,BO19:BT19,BO17:BT17,BO15:BT15,BO13:BT13,BO72:BT72,BO34:BT34,BO36:BT36,BO38:BT38,BO40:BT40,BO43:BT43,BO45:BT45,BO47:BT47,)</f>
         <v>0</v>
       </c>
-      <c r="BP84" s="171"/>
-      <c r="BQ84" s="171"/>
-      <c r="BR84" s="171"/>
-      <c r="BS84" s="171"/>
-      <c r="BT84" s="172"/>
-      <c r="BU84" s="170">
+      <c r="BP84" s="177"/>
+      <c r="BQ84" s="177"/>
+      <c r="BR84" s="177"/>
+      <c r="BS84" s="177"/>
+      <c r="BT84" s="178"/>
+      <c r="BU84" s="176">
         <f t="shared" ref="BU84" si="64">SUM(BU83:BZ83,BU81:BZ81,BU79:BZ79,BU77:BZ77,BU75:BZ75,BU70:BZ70,BU68:BZ68,BU66:BZ66,BU63:BZ63,BU61:BZ61,BU59:BZ59,BU56:BZ56,BU54:BZ54,BU52:BZ52,BU50:BZ50,BU32:BZ32,BU30:BZ30,BU26:BZ26,BU24:BZ24,BU22:BZ22,BU19:BZ19,BU17:BZ17,BU15:BZ15,BU13:BZ13,BU72:BZ72,BU34:BZ34,BU36:BZ36,BU38:BZ38,BU40:BZ40,BU43:BZ43,BU45:BZ45,BU47:BZ47,)</f>
         <v>0</v>
       </c>
-      <c r="BV84" s="171"/>
-      <c r="BW84" s="171"/>
-      <c r="BX84" s="171"/>
-      <c r="BY84" s="171"/>
-      <c r="BZ84" s="172"/>
+      <c r="BV84" s="177"/>
+      <c r="BW84" s="177"/>
+      <c r="BX84" s="177"/>
+      <c r="BY84" s="177"/>
+      <c r="BZ84" s="178"/>
       <c r="CA84" s="67"/>
     </row>
     <row r="85" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
@@ -9937,9 +9966,6 @@
     </row>
   </sheetData>
   <mergeCells count="1783">
-    <mergeCell ref="AZ77:BB77"/>
-    <mergeCell ref="AZ78:BB78"/>
-    <mergeCell ref="AZ79:BB79"/>
     <mergeCell ref="AZ80:BB80"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="M8:BK8"/>
@@ -10093,6 +10119,10 @@
     <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="AB80:AD80"/>
     <mergeCell ref="AE80:AG80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="P81:R81"/>
     <mergeCell ref="BU78:BW78"/>
     <mergeCell ref="BX78:BZ78"/>
     <mergeCell ref="AH78:AJ78"/>
@@ -10116,6 +10146,8 @@
     <mergeCell ref="BR79:BT79"/>
     <mergeCell ref="BU79:BW79"/>
     <mergeCell ref="BX79:BZ79"/>
+    <mergeCell ref="AZ78:BB78"/>
+    <mergeCell ref="AZ79:BB79"/>
     <mergeCell ref="AW18:AY18"/>
     <mergeCell ref="AW19:AY19"/>
     <mergeCell ref="AW84:BB84"/>
@@ -10204,6 +10236,14 @@
     <mergeCell ref="AN62:AP62"/>
     <mergeCell ref="AQ62:AS62"/>
     <mergeCell ref="AT62:AV62"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AE62:AG62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
     <mergeCell ref="BU60:BW60"/>
     <mergeCell ref="BX60:BZ60"/>
     <mergeCell ref="B60:B61"/>
@@ -10432,10 +10472,7 @@
     <mergeCell ref="S70:U70"/>
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="AH70:AJ70"/>
     <mergeCell ref="S81:U81"/>
     <mergeCell ref="V81:X81"/>
     <mergeCell ref="Y81:AA81"/>
@@ -10468,7 +10505,6 @@
     <mergeCell ref="BR74:BT74"/>
     <mergeCell ref="BU74:BW74"/>
     <mergeCell ref="BX74:BZ74"/>
-    <mergeCell ref="AH70:AJ70"/>
     <mergeCell ref="AK70:AM70"/>
     <mergeCell ref="AN70:AP70"/>
     <mergeCell ref="AQ70:AS70"/>
@@ -10537,14 +10573,10 @@
     <mergeCell ref="AE65:AG65"/>
     <mergeCell ref="BC67:BE67"/>
     <mergeCell ref="BF67:BH67"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="AH65:AJ65"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="BI66:BK66"/>
+    <mergeCell ref="BL66:BN66"/>
     <mergeCell ref="AK65:AM65"/>
     <mergeCell ref="AN65:AP65"/>
     <mergeCell ref="AQ65:AS65"/>
@@ -10560,10 +10592,6 @@
     <mergeCell ref="S66:U66"/>
     <mergeCell ref="V66:X66"/>
     <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="BI66:BK66"/>
-    <mergeCell ref="BL66:BN66"/>
     <mergeCell ref="AH66:AJ66"/>
     <mergeCell ref="AK66:AM66"/>
     <mergeCell ref="AN66:AP66"/>
@@ -10594,19 +10622,11 @@
     <mergeCell ref="BR63:BT63"/>
     <mergeCell ref="BU63:BW63"/>
     <mergeCell ref="BX63:BZ63"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AE62:AG62"/>
     <mergeCell ref="BL62:BN62"/>
     <mergeCell ref="BO62:BQ62"/>
     <mergeCell ref="BR62:BT62"/>
     <mergeCell ref="BU62:BW62"/>
     <mergeCell ref="BX62:BZ62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
     <mergeCell ref="Y62:AA62"/>
     <mergeCell ref="AZ63:BB63"/>
     <mergeCell ref="BC63:BE63"/>
@@ -10624,6 +10644,21 @@
     <mergeCell ref="J76:L76"/>
     <mergeCell ref="BC77:BE77"/>
     <mergeCell ref="BF77:BH77"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="AH65:AJ65"/>
     <mergeCell ref="BI77:BK77"/>
     <mergeCell ref="BL77:BN77"/>
     <mergeCell ref="BO77:BQ77"/>
@@ -10645,6 +10680,7 @@
     <mergeCell ref="V77:X77"/>
     <mergeCell ref="Y77:AA77"/>
     <mergeCell ref="AW77:AY77"/>
+    <mergeCell ref="AZ77:BB77"/>
     <mergeCell ref="BX76:BZ76"/>
     <mergeCell ref="AH76:AJ76"/>
     <mergeCell ref="Y75:AA75"/>
@@ -10670,13 +10706,6 @@
     <mergeCell ref="AQ76:AS76"/>
     <mergeCell ref="AT76:AV76"/>
     <mergeCell ref="BO76:BQ76"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:L74"/>
     <mergeCell ref="BC75:BE75"/>
     <mergeCell ref="BF75:BH75"/>
     <mergeCell ref="BI75:BK75"/>
@@ -11722,67 +11751,67 @@
     <mergeCell ref="BC72:BE72"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:AV13 BF13:BZ13 G15:AV15 BF15:BZ15 G17:AV17 BF17:BZ17 G19:AV19 BF19:BZ19 G22:AV22 BF22:BZ22 G24:AV24 BF24:BZ24 G26:AV26 BF26:BZ26 G30:AV30 BF30:BZ30 G32:AV32 BF32:BZ32 G50:AV50 BF50:BZ50 G52:AV52 BF52:BZ52 G54:AV54 BF54:BZ54 G56:AV56 BF56:BZ56 G59:AV59 BF59:BZ59 G61:AV61 BF61:BZ61 G63:AV63 BF63:BZ63 G66:AV66 BF66 BI66:BZ66 G68:AV68 BF68:BZ68 G70:AV70 BF70:BZ70 G75:AV75 G77:AV77 BF77:BZ77 G79:AV79 BF79:BZ79 G81:AV81 BF81:BZ81 G83:AV83 BF83:BZ83">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="91">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:U25">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="57">
       <formula>LEN(TRIM(P25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC75:BE75 BC77:BE77 BC79:BE79 BC81:BE81 BC83:BE83">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="22">
       <formula>LEN(TRIM(BC75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:AV34 BF34:BZ34">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF75:BZ75">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="23">
       <formula>LEN(TRIM(BF75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:AV36 BF36:BZ36">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="18">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:AV38 BF38:BZ38">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="16">
       <formula>LEN(TRIM(G38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:AV40 BF40:BZ40">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="14">
       <formula>LEN(TRIM(G40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:AV43 BF43:BZ43">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
       <formula>LEN(TRIM(G43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:AV45 BF45:BZ45">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="9">
       <formula>LEN(TRIM(G45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:AV47 BF47:BZ47">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(G47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:AV72 BF72:BZ72">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(G72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT62:AV62 AT60:AV60 AT58:AV58 AQ55:AS55 AH49:AJ49 V39:X39 V37:X37 S35:X35 S33:U33">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(S33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -529,7 +529,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +630,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1390,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1846,11 +1858,537 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="36" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2331,8 +2869,8 @@
   </sheetPr>
   <dimension ref="A1:CA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN71" sqref="AN71:AP71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR61" sqref="BR61:BT61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3129,7 +3667,7 @@
       </c>
       <c r="F10" s="27">
         <f>SUM(F11,F20,F27,F64,F73)</f>
-        <v>1.71875</v>
+        <v>2.3611111111111107</v>
       </c>
       <c r="G10" s="120">
         <v>45782</v>
@@ -4696,7 +5234,7 @@
       </c>
       <c r="F27" s="48">
         <f>SUM(F49:F56,F58:F63,F29:F40,F42:F47,)</f>
-        <v>0.91666666666666674</v>
+        <v>1.3541666666666663</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="47"/>
@@ -6632,7 +7170,7 @@
       </c>
       <c r="F49" s="97">
         <f>SUM(G50:BZ50,)</f>
-        <v>0</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="G49" s="87"/>
       <c r="H49" s="88"/>
@@ -6750,10 +7288,14 @@
       <c r="AK50" s="81"/>
       <c r="AL50" s="79"/>
       <c r="AM50" s="80"/>
-      <c r="AN50" s="81"/>
+      <c r="AN50" s="81">
+        <v>3.8194444444444441E-2</v>
+      </c>
       <c r="AO50" s="79"/>
       <c r="AP50" s="80"/>
-      <c r="AQ50" s="90"/>
+      <c r="AQ50" s="90">
+        <v>7.9861111111111105E-2</v>
+      </c>
       <c r="AR50" s="88"/>
       <c r="AS50" s="89"/>
       <c r="AT50" s="90"/>
@@ -6791,7 +7333,7 @@
       <c r="BZ50" s="82"/>
       <c r="CA50" s="34"/>
     </row>
-    <row r="51" spans="1:79" ht="21" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="17"/>
       <c r="B51" s="91" t="s">
         <v>35</v>
@@ -6806,7 +7348,7 @@
       </c>
       <c r="F51" s="97">
         <f t="shared" ref="F51" si="30">SUM(G52:BZ52,)</f>
-        <v>0</v>
+        <v>0.11458333333333334</v>
       </c>
       <c r="G51" s="87"/>
       <c r="H51" s="88"/>
@@ -6927,10 +7469,14 @@
       <c r="AN52" s="81"/>
       <c r="AO52" s="79"/>
       <c r="AP52" s="80"/>
-      <c r="AQ52" s="90"/>
+      <c r="AQ52" s="90">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="AR52" s="88"/>
       <c r="AS52" s="89"/>
-      <c r="AT52" s="90"/>
+      <c r="AT52" s="90">
+        <v>5.9027777777777783E-2</v>
+      </c>
       <c r="AU52" s="88"/>
       <c r="AV52" s="89"/>
       <c r="AW52" s="81"/>
@@ -6980,7 +7526,7 @@
       </c>
       <c r="F53" s="97">
         <f t="shared" ref="F53" si="32">SUM(G54:BZ54,)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G53" s="87"/>
       <c r="H53" s="88"/>
@@ -7107,9 +7653,11 @@
       <c r="AT54" s="78"/>
       <c r="AU54" s="79"/>
       <c r="AV54" s="80"/>
-      <c r="AW54" s="81"/>
-      <c r="AX54" s="79"/>
-      <c r="AY54" s="80"/>
+      <c r="AW54" s="187">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AX54" s="188"/>
+      <c r="AY54" s="189"/>
       <c r="AZ54" s="81"/>
       <c r="BA54" s="79"/>
       <c r="BB54" s="80"/>
@@ -7154,7 +7702,7 @@
       </c>
       <c r="F55" s="97">
         <f t="shared" ref="F55" si="34">SUM(G56:BZ56,)</f>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="G55" s="87"/>
       <c r="H55" s="88"/>
@@ -7284,7 +7832,9 @@
       <c r="AW56" s="81"/>
       <c r="AX56" s="79"/>
       <c r="AY56" s="80"/>
-      <c r="AZ56" s="81"/>
+      <c r="AZ56" s="81">
+        <v>9.7222222222222224E-2</v>
+      </c>
       <c r="BA56" s="79"/>
       <c r="BB56" s="80"/>
       <c r="BC56" s="87"/>
@@ -7413,7 +7963,7 @@
       </c>
       <c r="F58" s="97">
         <f>SUM(G59:BZ59,)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="G58" s="87"/>
       <c r="H58" s="88"/>
@@ -7543,7 +8093,9 @@
       <c r="AW59" s="81"/>
       <c r="AX59" s="79"/>
       <c r="AY59" s="80"/>
-      <c r="AZ59" s="81"/>
+      <c r="AZ59" s="81">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="BA59" s="79"/>
       <c r="BB59" s="80"/>
       <c r="BC59" s="87"/>
@@ -7761,7 +8313,7 @@
       </c>
       <c r="F62" s="97">
         <f t="shared" ref="F62" si="38">SUM(G63:BZ63,)</f>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G62" s="87"/>
       <c r="H62" s="88"/>
@@ -7891,7 +8443,9 @@
       <c r="AW63" s="81"/>
       <c r="AX63" s="79"/>
       <c r="AY63" s="80"/>
-      <c r="AZ63" s="81"/>
+      <c r="AZ63" s="81">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="BA63" s="79"/>
       <c r="BB63" s="80"/>
       <c r="BC63" s="87"/>
@@ -7935,7 +8489,7 @@
       </c>
       <c r="F64" s="32">
         <f>SUM(F65:F72)</f>
-        <v>0.35069444444444448</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G64" s="63"/>
       <c r="H64" s="64"/>
@@ -8204,7 +8758,7 @@
       </c>
       <c r="F67" s="97">
         <f t="shared" ref="F67" si="40">SUM(G68:BZ68,)</f>
-        <v>5.2083333333333336E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="88"/>
@@ -8360,19 +8914,29 @@
       </c>
       <c r="AL68" s="79"/>
       <c r="AM68" s="80"/>
-      <c r="AN68" s="81"/>
+      <c r="AN68" s="81">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AO68" s="79"/>
       <c r="AP68" s="80"/>
-      <c r="AQ68" s="90"/>
+      <c r="AQ68" s="90">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AR68" s="88"/>
       <c r="AS68" s="89"/>
-      <c r="AT68" s="90"/>
+      <c r="AT68" s="90">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AU68" s="88"/>
       <c r="AV68" s="89"/>
-      <c r="AW68" s="81"/>
+      <c r="AW68" s="81">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AX68" s="79"/>
       <c r="AY68" s="80"/>
-      <c r="AZ68" s="81"/>
+      <c r="AZ68" s="81">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="BA68" s="79"/>
       <c r="BB68" s="80"/>
       <c r="BC68" s="87"/>
@@ -8590,7 +9154,7 @@
       </c>
       <c r="F71" s="97">
         <f t="shared" ref="F71" si="44">SUM(G72:BZ72,)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="G71" s="87"/>
       <c r="H71" s="88"/>
@@ -8714,10 +9278,14 @@
       <c r="AQ72" s="86"/>
       <c r="AR72" s="84"/>
       <c r="AS72" s="85"/>
-      <c r="AT72" s="86"/>
+      <c r="AT72" s="86">
+        <v>7.6388888888888895E-2</v>
+      </c>
       <c r="AU72" s="84"/>
       <c r="AV72" s="85"/>
-      <c r="AW72" s="81"/>
+      <c r="AW72" s="81">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="AX72" s="79"/>
       <c r="AY72" s="80"/>
       <c r="AZ72" s="81"/>
@@ -8764,7 +9332,7 @@
       </c>
       <c r="F73" s="42">
         <f t="shared" si="45"/>
-        <v>0.23958333333333331</v>
+        <v>0.27430555555555558</v>
       </c>
       <c r="G73" s="68"/>
       <c r="H73" s="69"/>
@@ -8855,7 +9423,7 @@
       </c>
       <c r="F74" s="97">
         <f>SUM(G75:BZ75)</f>
-        <v>7.9861111111111119E-2</v>
+        <v>0.11458333333333336</v>
       </c>
       <c r="G74" s="110">
         <v>1.0416666666666666E-2</v>
@@ -9042,20 +9610,28 @@
       <c r="AL75" s="150"/>
       <c r="AM75" s="154"/>
       <c r="AN75" s="149">
-        <v>3.472222222222222E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="AO75" s="150"/>
       <c r="AP75" s="154"/>
-      <c r="AQ75" s="153"/>
+      <c r="AQ75" s="153">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AR75" s="90"/>
       <c r="AS75" s="152"/>
-      <c r="AT75" s="153"/>
+      <c r="AT75" s="153">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="AU75" s="90"/>
       <c r="AV75" s="152"/>
-      <c r="AW75" s="149"/>
+      <c r="AW75" s="149">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AX75" s="150"/>
       <c r="AY75" s="154"/>
-      <c r="AZ75" s="149"/>
+      <c r="AZ75" s="149">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="BA75" s="150"/>
       <c r="BB75" s="151"/>
       <c r="BC75" s="87"/>
@@ -9866,7 +10442,7 @@
       <c r="AJ84" s="181"/>
       <c r="AK84" s="179">
         <f t="shared" ref="AK84" si="58">SUM(AK83:AP83,AK81:AP81,AK79:AP79,AK77:AP77,AK75:AP75,AK70:AP70,AK68:AP68,AK66:AP66,AK63:AP63,AK61:AP61,AK59:AP59,AK56:AP56,AK54:AP54,AK52:AP52,AK50:AP50,AK32:AP32,AK30:AP30,AK26:AP26,AK24:AP24,AK22:AP22,AK19:AP19,AK17:AP17,AK15:AP15,AK13:AP13,AK72:AP72,AK34:AP34,AK36:AP36,AK38:AP38,AK40:AP40,AK43:AP43,AK45:AP45,AK47:AP47,)</f>
-        <v>0.24305555555555558</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="AL84" s="180"/>
       <c r="AM84" s="180"/>
@@ -9875,7 +10451,7 @@
       <c r="AP84" s="181"/>
       <c r="AQ84" s="179">
         <f t="shared" ref="AQ84" si="59">SUM(AQ83:AV83,AQ81:AV81,AQ79:AV79,AQ77:AV77,AQ75:AV75,AQ70:AV70,AQ68:AV68,AQ66:AV66,AQ63:AV63,AQ61:AV61,AQ59:AV59,AQ56:AV56,AQ54:AV54,AQ52:AV52,AQ50:AV50,AQ32:AV32,AQ30:AV30,AQ26:AV26,AQ24:AV24,AQ22:AV22,AQ19:AV19,AQ17:AV17,AQ15:AV15,AQ13:AV13,AQ72:AV72,AQ34:AV34,AQ36:AV36,AQ38:AV38,AQ40:AV40,AQ43:AV43,AQ45:AV45,AQ47:AV47,)</f>
-        <v>0</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="AR84" s="180"/>
       <c r="AS84" s="180"/>
@@ -9884,7 +10460,7 @@
       <c r="AV84" s="181"/>
       <c r="AW84" s="179">
         <f t="shared" ref="AW84" si="60">SUM(AW83:BB83,AW81:BB81,AW79:BB79,AW77:BB77,AW75:BB75,AW70:BB70,AW68:BB68,AW66:BB66,AW63:BB63,AW61:BB61,AW59:BB59,AW56:BB56,AW54:BB54,AW52:BB52,AW50:BB50,AW32:BB32,AW30:BB30,AW26:BB26,AW24:BB24,AW22:BB22,AW19:BB19,AW17:BB17,AW15:BB15,AW13:BB13,AW72:BB72,AW34:BB34,AW36:BB36,AW38:BB38,AW40:BB40,AW43:BB43,AW45:BB45,AW47:BB47,)</f>
-        <v>0</v>
+        <v>0.29513888888888884</v>
       </c>
       <c r="AX84" s="180"/>
       <c r="AY84" s="180"/>
@@ -10805,6 +11381,7 @@
     <mergeCell ref="AB15:AD15"/>
     <mergeCell ref="Y24:AA24"/>
     <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="AH51:AJ51"/>
     <mergeCell ref="AK51:AM51"/>
     <mergeCell ref="AN51:AP51"/>
@@ -11215,7 +11792,6 @@
     <mergeCell ref="BF17:BH17"/>
     <mergeCell ref="BC18:BE18"/>
     <mergeCell ref="BF18:BH18"/>
-    <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="P22:R22"/>
     <mergeCell ref="S22:U22"/>
@@ -11791,72 +12367,97 @@
     <mergeCell ref="BC72:BE72"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:AV13 BF13:BZ13 G15:AV15 BF15:BZ15 G17:AV17 BF17:BZ17 G19:AV19 BF19:BZ19 G22:AV22 BF22:BZ22 G24:AV24 BF24:BZ24 G26:AV26 BF26:BZ26 G30:AV30 BF30:BZ30 G32:AV32 BF32:BZ32 G50:AV50 BF50:BZ50 G52:AV52 BF52:BZ52 G54:AV54 BF54:BZ54 G56:AV56 BF56:BZ56 G59:AV59 BF59:BZ59 G61:AV61 BF61:BZ61 G63:AV63 BF63:BZ63 G66:AV66 BF66 BI66:BZ66 G68:AV68 BF68:BZ68 G70:AV70 BF70:BZ70 G75:AV75 G77:AV77 BF77:BZ77 G79:AV79 BF79:BZ79 G81:AV81 BF81:BZ81 G83:AV83 BF83:BZ83">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="98">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:U25">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="64">
       <formula>LEN(TRIM(P25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC75:BE75 BC77:BE77 BC79:BE79 BC81:BE81 BC83:BE83">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="29">
       <formula>LEN(TRIM(BC75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:AV34 BF34:BZ34">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="27">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF75:BZ75">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="30">
       <formula>LEN(TRIM(BF75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:AV36 BF36:BZ36">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="25">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:AV38 BF38:BZ38">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="23">
       <formula>LEN(TRIM(G38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:AV40 BF40:BZ40">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="21">
       <formula>LEN(TRIM(G40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:AV43 BF43:BZ43">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="19">
       <formula>LEN(TRIM(G43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:AV45 BF45:BZ45">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="16">
       <formula>LEN(TRIM(G45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:AV47 BF47:BZ47">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="13">
       <formula>LEN(TRIM(G47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:AV72 BF72:BZ72">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="10">
       <formula>LEN(TRIM(G72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT62:AV62 AT60:AV60 AT58:AV58 AQ55:AS55 AH49:AJ49 V39:X39 V37:X37 S35:X35 S33:U33">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="8">
+      <formula>LEN(TRIM(S33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK58:AP58">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="6">
+      <formula>LEN(TRIM(AK58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW75:AY75">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="4">
+      <formula>LEN(TRIM(AW75))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW68:BB68">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="3">
+      <formula>LEN(TRIM(AW68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW72:BB72 AW70:BB70 AW63:BB63 AW61:BB61 AW59:BB59 AW56:BB56">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="2">
+      <formula>LEN(TRIM(AW56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ75:BB75">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(S33))&gt;0</formula>
+      <formula>LEN(TRIM(AZ75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>TITRE DU PROJET</t>
   </si>
@@ -1852,22 +1852,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="36" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1900,492 +1914,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2869,8 +2397,8 @@
   </sheetPr>
   <dimension ref="A1:CA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BR61" sqref="BR61:BT61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BI70" sqref="BI70:BK70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3548,7 +3076,7 @@
       <c r="BW8" s="138"/>
       <c r="BX8" s="138"/>
       <c r="BY8" s="138"/>
-      <c r="BZ8" s="186"/>
+      <c r="BZ8" s="189"/>
       <c r="CA8" s="23"/>
     </row>
     <row r="9" spans="1:79" ht="17.25" customHeight="1">
@@ -3667,7 +3195,7 @@
       </c>
       <c r="F10" s="27">
         <f>SUM(F11,F20,F27,F64,F73)</f>
-        <v>2.3611111111111107</v>
+        <v>2.65625</v>
       </c>
       <c r="G10" s="120">
         <v>45782</v>
@@ -5234,7 +4762,7 @@
       </c>
       <c r="F27" s="48">
         <f>SUM(F49:F56,F58:F63,F29:F40,F42:F47,)</f>
-        <v>1.3541666666666663</v>
+        <v>1.4374999999999998</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="47"/>
@@ -7653,11 +7181,11 @@
       <c r="AT54" s="78"/>
       <c r="AU54" s="79"/>
       <c r="AV54" s="80"/>
-      <c r="AW54" s="187">
+      <c r="AW54" s="185">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AX54" s="188"/>
-      <c r="AY54" s="189"/>
+      <c r="AX54" s="186"/>
+      <c r="AY54" s="187"/>
       <c r="AZ54" s="81"/>
       <c r="BA54" s="79"/>
       <c r="BB54" s="80"/>
@@ -8139,7 +7667,7 @@
       </c>
       <c r="F60" s="97">
         <f t="shared" ref="F60" si="36">SUM(G61:BZ61,)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G60" s="87"/>
       <c r="H60" s="88"/>
@@ -8272,7 +7800,9 @@
       <c r="AZ61" s="81"/>
       <c r="BA61" s="79"/>
       <c r="BB61" s="80"/>
-      <c r="BC61" s="87"/>
+      <c r="BC61" s="87">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="BD61" s="88"/>
       <c r="BE61" s="89"/>
       <c r="BF61" s="78"/>
@@ -8489,7 +8019,7 @@
       </c>
       <c r="F64" s="32">
         <f>SUM(F65:F72)</f>
-        <v>0.52083333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="G64" s="63"/>
       <c r="H64" s="64"/>
@@ -8580,7 +8110,7 @@
       </c>
       <c r="F65" s="97">
         <f>SUM(G66:BZ66,)</f>
-        <v>0.25694444444444448</v>
+        <v>0.39236111111111116</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="88"/>
@@ -8717,10 +8247,14 @@
       <c r="AZ66" s="81"/>
       <c r="BA66" s="79"/>
       <c r="BB66" s="80"/>
-      <c r="BC66" s="87"/>
+      <c r="BC66" s="87">
+        <v>5.9027777777777783E-2</v>
+      </c>
       <c r="BD66" s="88"/>
       <c r="BE66" s="89"/>
-      <c r="BF66" s="126"/>
+      <c r="BF66" s="126">
+        <v>7.6388888888888895E-2</v>
+      </c>
       <c r="BG66" s="79"/>
       <c r="BH66" s="80"/>
       <c r="BI66" s="169"/>
@@ -8758,7 +8292,7 @@
       </c>
       <c r="F67" s="97">
         <f t="shared" ref="F67" si="40">SUM(G68:BZ68,)</f>
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="88"/>
@@ -8942,7 +8476,9 @@
       <c r="BC68" s="87"/>
       <c r="BD68" s="88"/>
       <c r="BE68" s="89"/>
-      <c r="BF68" s="78"/>
+      <c r="BF68" s="78">
+        <v>6.25E-2</v>
+      </c>
       <c r="BG68" s="79"/>
       <c r="BH68" s="80"/>
       <c r="BI68" s="81"/>
@@ -9288,7 +8824,9 @@
       </c>
       <c r="AX72" s="79"/>
       <c r="AY72" s="80"/>
-      <c r="AZ72" s="81"/>
+      <c r="AZ72" s="81" t="s">
+        <v>91</v>
+      </c>
       <c r="BA72" s="79"/>
       <c r="BB72" s="80"/>
       <c r="BC72" s="87"/>
@@ -9332,7 +8870,7 @@
       </c>
       <c r="F73" s="42">
         <f t="shared" si="45"/>
-        <v>0.27430555555555558</v>
+        <v>0.28819444444444442</v>
       </c>
       <c r="G73" s="68"/>
       <c r="H73" s="69"/>
@@ -9423,7 +8961,7 @@
       </c>
       <c r="F74" s="97">
         <f>SUM(G75:BZ75)</f>
-        <v>0.11458333333333336</v>
+        <v>0.12847222222222224</v>
       </c>
       <c r="G74" s="110">
         <v>1.0416666666666666E-2</v>
@@ -9634,10 +9172,14 @@
       </c>
       <c r="BA75" s="150"/>
       <c r="BB75" s="151"/>
-      <c r="BC75" s="87"/>
+      <c r="BC75" s="87">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="BD75" s="90"/>
       <c r="BE75" s="152"/>
-      <c r="BF75" s="153"/>
+      <c r="BF75" s="153">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="BG75" s="90"/>
       <c r="BH75" s="152"/>
       <c r="BI75" s="149"/>
@@ -10027,7 +9569,7 @@
       <c r="BO79" s="78"/>
       <c r="BP79" s="79"/>
       <c r="BQ79" s="80"/>
-      <c r="BR79" s="185"/>
+      <c r="BR79" s="188"/>
       <c r="BS79" s="76"/>
       <c r="BT79" s="76"/>
       <c r="BU79" s="81"/>
@@ -10469,7 +10011,7 @@
       <c r="BB84" s="181"/>
       <c r="BC84" s="179">
         <f t="shared" ref="BC84" si="61">SUM(BC83:BH83,BC81:BH81,BC79:BH79,BC77:BH77,BC75:BH75,BC70:BH70,BC68:BH68,BC66:BH66,BC63:BH63,BC61:BH61,BC59:BH59,BC56:BH56,BC54:BH54,BC52:BH52,BC50:BH50,BC32:BH32,BC30:BH30,BC26:BH26,BC24:BH24,BC22:BH22,BC19:BH19,BC17:BH17,BC15:BH15,BC13:BH13,BC72:BH72,BC34:BH34,BC36:BH36,BC38:BH38,BC40:BH40,BC43:BH43,BC45:BH45,BC47:BH47,)</f>
-        <v>0</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="BD84" s="180"/>
       <c r="BE84" s="180"/>
@@ -12367,93 +11909,103 @@
     <mergeCell ref="BC72:BE72"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:AV13 BF13:BZ13 G15:AV15 BF15:BZ15 G17:AV17 BF17:BZ17 G19:AV19 BF19:BZ19 G22:AV22 BF22:BZ22 G24:AV24 BF24:BZ24 G26:AV26 BF26:BZ26 G30:AV30 BF30:BZ30 G32:AV32 BF32:BZ32 G50:AV50 BF50:BZ50 G52:AV52 BF52:BZ52 G54:AV54 BF54:BZ54 G56:AV56 BF56:BZ56 G59:AV59 BF59:BZ59 G61:AV61 BF61:BZ61 G63:AV63 BF63:BZ63 G66:AV66 BF66 BI66:BZ66 G68:AV68 BF68:BZ68 G70:AV70 BF70:BZ70 G75:AV75 G77:AV77 BF77:BZ77 G79:AV79 BF79:BZ79 G81:AV81 BF81:BZ81 G83:AV83 BF83:BZ83">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="98">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="100">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:U25">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="64">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="66">
       <formula>LEN(TRIM(P25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC75:BE75 BC77:BE77 BC79:BE79 BC81:BE81 BC83:BE83">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="31">
       <formula>LEN(TRIM(BC75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:AV34 BF34:BZ34">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="29">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF75:BZ75">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="32">
       <formula>LEN(TRIM(BF75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:AV36 BF36:BZ36">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="27">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:AV38 BF38:BZ38">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="25">
       <formula>LEN(TRIM(G38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:AV40 BF40:BZ40">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="23">
       <formula>LEN(TRIM(G40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:AV43 BF43:BZ43">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="21">
       <formula>LEN(TRIM(G43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:AV45 BF45:BZ45">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="18">
       <formula>LEN(TRIM(G45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:AV47 BF47:BZ47">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="15">
       <formula>LEN(TRIM(G47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:AV72 BF72:BZ72">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="12">
       <formula>LEN(TRIM(G72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT62:AV62 AT60:AV60 AT58:AV58 AQ55:AS55 AH49:AJ49 V39:X39 V37:X37 S35:X35 S33:U33">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="10">
       <formula>LEN(TRIM(S33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK58:AP58">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(AK58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW75:AY75">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(AW75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW68:BB68">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(AW68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW72:BB72 AW70:BB70 AW63:BB63 AW61:BB61 AW59:BB59 AW56:BB56">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(AW56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ75:BB75">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(AZ75))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC61:BE61">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(BC61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC66:BZ66">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(AZ75))&gt;0</formula>
+      <formula>LEN(TRIM(BC66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" gridLines="1"/>
